--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -453,118 +453,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>QQ1a</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>QQ1b</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>QQ1c</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>QQ1d</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>QQ1e</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>QQ1f</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>QQ1g</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>QQ1h</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>QQ1i</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>QQ1j</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.5</v>
+      </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>QQ2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>QQ3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
       <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>QQ4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
       <c r="C14" t="inlineStr"/>
     </row>
   </sheetData>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,162 +436,350 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Qno</t>
+          <t>Question_Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Marks</t>
+          <t>Marks_obtained</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Subpart/Question</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>QQ1a</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>QQ1b</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>QQ1c</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>QQ1d</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>QQ1e</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>QQ1f</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>QQ1g</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>QQ1h</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>QQ1i</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>QQ1j</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>QQ2</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>QQ3</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
         <v>6</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>QQ4</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
         <v>4</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,16 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Max Marks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Marks_obtained</t>
         </is>
       </c>
@@ -450,336 +460,56 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Short answer questions</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>With the help of flow diagram discuss instruction execution cycle.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Present a report on the use of common bus system for data transfer? Illustrate data transfer using common bus system through example.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="n">
-        <v>6</v>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Explain memory reference and register reference instructions with suitable examples.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
